--- a/outputs/steel/diff_no_finishing_rolling_fuel.xlsx
+++ b/outputs/steel/diff_no_finishing_rolling_fuel.xlsx
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="67">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="72">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="114">
@@ -3017,7 +3017,7 @@
         <v>0.92</v>
       </c>
       <c r="E116">
-        <v>-9.4</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="117">
@@ -3132,7 +3132,7 @@
         <v>214.89</v>
       </c>
       <c r="E121">
-        <v>257.29</v>
+        <v>267.32</v>
       </c>
     </row>
     <row r="122">
